--- a/Propeller Packages/APC_11x7/CdvsAlpha_RPM10000.xlsx
+++ b/Propeller Packages/APC_11x7/CdvsAlpha_RPM10000.xlsx
@@ -115,7 +115,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN31"/>
+  <dimension ref="A1:AN29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -287,22 +287,22 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-11</v>
+        <v>-12</v>
       </c>
       <c r="B2" s="0">
-        <v>0.18428</v>
+        <v>0.19058</v>
       </c>
       <c r="C2" s="0">
         <v>-11</v>
       </c>
       <c r="D2" s="0">
-        <v>0.13289000000000001</v>
+        <v>0.13288</v>
       </c>
       <c r="E2" s="0">
         <v>-12</v>
       </c>
       <c r="F2" s="0">
-        <v>0.12255000000000001</v>
+        <v>0.12265</v>
       </c>
       <c r="G2" s="0">
         <v>-12</v>
@@ -350,19 +350,19 @@
         <v>-12</v>
       </c>
       <c r="V2" s="0">
-        <v>0.12403</v>
+        <v>0.12404</v>
       </c>
       <c r="W2" s="0">
         <v>-12</v>
       </c>
       <c r="X2" s="0">
-        <v>0.12641</v>
+        <v>0.12642</v>
       </c>
       <c r="Y2" s="0">
         <v>-12</v>
       </c>
       <c r="Z2" s="0">
-        <v>0.12820999999999999</v>
+        <v>0.12822</v>
       </c>
       <c r="AA2" s="0">
         <v>-12</v>
@@ -409,22 +409,22 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-10</v>
+        <v>-11</v>
       </c>
       <c r="B3" s="0">
-        <v>0.17816000000000001</v>
+        <v>0.18758</v>
       </c>
       <c r="C3" s="0">
         <v>-10</v>
       </c>
       <c r="D3" s="0">
-        <v>0.12239</v>
+        <v>0.12177</v>
       </c>
       <c r="E3" s="0">
         <v>-10</v>
       </c>
       <c r="F3" s="0">
-        <v>0.095229999999999995</v>
+        <v>0.094969999999999999</v>
       </c>
       <c r="G3" s="0">
         <v>-11</v>
@@ -442,13 +442,13 @@
         <v>-11</v>
       </c>
       <c r="L3" s="0">
-        <v>0.10191</v>
+        <v>0.1019</v>
       </c>
       <c r="M3" s="0">
         <v>-11</v>
       </c>
       <c r="N3" s="0">
-        <v>0.099930000000000005</v>
+        <v>0.099919999999999995</v>
       </c>
       <c r="O3" s="0">
         <v>-11</v>
@@ -472,7 +472,7 @@
         <v>-11</v>
       </c>
       <c r="V3" s="0">
-        <v>0.10667</v>
+        <v>0.10668</v>
       </c>
       <c r="W3" s="0">
         <v>-11</v>
@@ -508,7 +508,7 @@
         <v>-11</v>
       </c>
       <c r="AH3" s="0">
-        <v>0.11873</v>
+        <v>0.11872000000000001</v>
       </c>
       <c r="AI3" s="0">
         <v>-11</v>
@@ -531,22 +531,22 @@
     </row>
     <row r="4">
       <c r="A4" s="0">
+        <v>-10</v>
+      </c>
+      <c r="B4" s="0">
+        <v>0.1837</v>
+      </c>
+      <c r="C4" s="0">
         <v>-9</v>
       </c>
-      <c r="B4" s="0">
-        <v>0.16250999999999999</v>
-      </c>
-      <c r="C4" s="0">
-        <v>-8</v>
-      </c>
       <c r="D4" s="0">
-        <v>0.10462</v>
+        <v>0.11557000000000001</v>
       </c>
       <c r="E4" s="0">
         <v>-9</v>
       </c>
       <c r="F4" s="0">
-        <v>0.078770000000000007</v>
+        <v>0.078020000000000006</v>
       </c>
       <c r="G4" s="0">
         <v>-10</v>
@@ -564,13 +564,13 @@
         <v>-10</v>
       </c>
       <c r="L4" s="0">
-        <v>0.087900000000000006</v>
+        <v>0.087889999999999996</v>
       </c>
       <c r="M4" s="0">
         <v>-10</v>
       </c>
       <c r="N4" s="0">
-        <v>0.084589999999999999</v>
+        <v>0.084620000000000001</v>
       </c>
       <c r="O4" s="0">
         <v>-10</v>
@@ -594,13 +594,13 @@
         <v>-10</v>
       </c>
       <c r="V4" s="0">
-        <v>0.087029999999999996</v>
+        <v>0.087059999999999999</v>
       </c>
       <c r="W4" s="0">
         <v>-10</v>
       </c>
       <c r="X4" s="0">
-        <v>0.089910000000000004</v>
+        <v>0.08992</v>
       </c>
       <c r="Y4" s="0">
         <v>-10</v>
@@ -630,7 +630,7 @@
         <v>-10</v>
       </c>
       <c r="AH4" s="0">
-        <v>0.10623</v>
+        <v>0.10622</v>
       </c>
       <c r="AI4" s="0">
         <v>-10</v>
@@ -653,22 +653,22 @@
     </row>
     <row r="5">
       <c r="A5" s="0">
+        <v>-9</v>
+      </c>
+      <c r="B5" s="0">
+        <v>0.16997000000000001</v>
+      </c>
+      <c r="C5" s="0">
         <v>-8</v>
       </c>
-      <c r="B5" s="0">
-        <v>0.15298</v>
-      </c>
-      <c r="C5" s="0">
-        <v>-7</v>
-      </c>
       <c r="D5" s="0">
-        <v>0.082780000000000006</v>
+        <v>0.10453</v>
       </c>
       <c r="E5" s="0">
         <v>-8</v>
       </c>
       <c r="F5" s="0">
-        <v>0.057029999999999997</v>
+        <v>0.056910000000000002</v>
       </c>
       <c r="G5" s="0">
         <v>-9</v>
@@ -689,10 +689,10 @@
         <v>0.044450000000000003</v>
       </c>
       <c r="M5" s="0">
-        <v>-9</v>
+        <v>-8</v>
       </c>
       <c r="N5" s="0">
-        <v>0.04163</v>
+        <v>0.035459999999999999</v>
       </c>
       <c r="O5" s="0">
         <v>-9</v>
@@ -716,19 +716,19 @@
         <v>-9</v>
       </c>
       <c r="V5" s="0">
-        <v>0.04122</v>
+        <v>0.041200000000000001</v>
       </c>
       <c r="W5" s="0">
         <v>-9</v>
       </c>
       <c r="X5" s="0">
-        <v>0.063200000000000006</v>
+        <v>0.063189999999999996</v>
       </c>
       <c r="Y5" s="0">
         <v>-9</v>
       </c>
       <c r="Z5" s="0">
-        <v>0.067199999999999996</v>
+        <v>0.067180000000000004</v>
       </c>
       <c r="AA5" s="0">
         <v>-9</v>
@@ -775,28 +775,28 @@
     </row>
     <row r="6">
       <c r="A6" s="0">
+        <v>-8</v>
+      </c>
+      <c r="B6" s="0">
+        <v>0.16069</v>
+      </c>
+      <c r="C6" s="0">
         <v>-7</v>
       </c>
-      <c r="B6" s="0">
-        <v>0.14323</v>
-      </c>
-      <c r="C6" s="0">
-        <v>-6</v>
-      </c>
       <c r="D6" s="0">
-        <v>0.072580000000000006</v>
+        <v>0.082699999999999996</v>
       </c>
       <c r="E6" s="0">
         <v>-7</v>
       </c>
       <c r="F6" s="0">
-        <v>0.051950000000000003</v>
+        <v>0.051889999999999999</v>
       </c>
       <c r="G6" s="0">
         <v>-8</v>
       </c>
       <c r="H6" s="0">
-        <v>0.047239999999999997</v>
+        <v>0.04725</v>
       </c>
       <c r="I6" s="0">
         <v>-8</v>
@@ -811,10 +811,10 @@
         <v>0.039539999999999999</v>
       </c>
       <c r="M6" s="0">
-        <v>-8</v>
+        <v>-7</v>
       </c>
       <c r="N6" s="0">
-        <v>0.035459999999999999</v>
+        <v>0.030439999999999998</v>
       </c>
       <c r="O6" s="0">
         <v>-8</v>
@@ -874,7 +874,7 @@
         <v>-8</v>
       </c>
       <c r="AH6" s="0">
-        <v>0.06411</v>
+        <v>0.064100000000000004</v>
       </c>
       <c r="AI6" s="0">
         <v>-8</v>
@@ -897,22 +897,22 @@
     </row>
     <row r="7">
       <c r="A7" s="0">
+        <v>-7</v>
+      </c>
+      <c r="B7" s="0">
+        <v>0.1522</v>
+      </c>
+      <c r="C7" s="0">
         <v>-6</v>
       </c>
-      <c r="B7" s="0">
-        <v>0.13208</v>
-      </c>
-      <c r="C7" s="0">
-        <v>-5</v>
-      </c>
       <c r="D7" s="0">
-        <v>0.065720000000000001</v>
+        <v>0.072539999999999993</v>
       </c>
       <c r="E7" s="0">
         <v>-6</v>
       </c>
       <c r="F7" s="0">
-        <v>0.050500000000000003</v>
+        <v>0.050450000000000002</v>
       </c>
       <c r="G7" s="0">
         <v>-7</v>
@@ -933,10 +933,10 @@
         <v>0.034909999999999997</v>
       </c>
       <c r="M7" s="0">
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="N7" s="0">
-        <v>0.030439999999999998</v>
+        <v>0.027550000000000002</v>
       </c>
       <c r="O7" s="0">
         <v>-7</v>
@@ -1002,7 +1002,7 @@
         <v>-7</v>
       </c>
       <c r="AJ7" s="0">
-        <v>0.04795</v>
+        <v>0.047940000000000004</v>
       </c>
       <c r="AK7" s="0">
         <v>-7</v>
@@ -1019,22 +1019,22 @@
     </row>
     <row r="8">
       <c r="A8" s="0">
+        <v>-6</v>
+      </c>
+      <c r="B8" s="0">
+        <v>0.14280000000000001</v>
+      </c>
+      <c r="C8" s="0">
         <v>-5</v>
       </c>
-      <c r="B8" s="0">
-        <v>0.11779000000000001</v>
-      </c>
-      <c r="C8" s="0">
-        <v>-4</v>
-      </c>
       <c r="D8" s="0">
-        <v>0.062449999999999999</v>
+        <v>0.065689999999999998</v>
       </c>
       <c r="E8" s="0">
         <v>-5</v>
       </c>
       <c r="F8" s="0">
-        <v>0.04879</v>
+        <v>0.048750000000000002</v>
       </c>
       <c r="G8" s="0">
         <v>-6</v>
@@ -1055,10 +1055,10 @@
         <v>0.031890000000000002</v>
       </c>
       <c r="M8" s="0">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="N8" s="0">
-        <v>0.027550000000000002</v>
+        <v>0.025260000000000001</v>
       </c>
       <c r="O8" s="0">
         <v>-6</v>
@@ -1082,7 +1082,7 @@
         <v>-6</v>
       </c>
       <c r="V8" s="0">
-        <v>0.021360000000000001</v>
+        <v>0.02137</v>
       </c>
       <c r="W8" s="0">
         <v>-6</v>
@@ -1141,28 +1141,28 @@
     </row>
     <row r="9">
       <c r="A9" s="0">
+        <v>-5</v>
+      </c>
+      <c r="B9" s="0">
+        <v>0.13003999999999999</v>
+      </c>
+      <c r="C9" s="0">
         <v>-4</v>
       </c>
-      <c r="B9" s="0">
-        <v>0.10696</v>
-      </c>
-      <c r="C9" s="0">
-        <v>-3</v>
-      </c>
       <c r="D9" s="0">
-        <v>0.060720000000000003</v>
+        <v>0.062449999999999999</v>
       </c>
       <c r="E9" s="0">
         <v>-4</v>
       </c>
       <c r="F9" s="0">
-        <v>0.047980000000000002</v>
+        <v>0.046010000000000002</v>
       </c>
       <c r="G9" s="0">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="H9" s="0">
-        <v>0.037159999999999999</v>
+        <v>0.037780000000000001</v>
       </c>
       <c r="I9" s="0">
         <v>-5</v>
@@ -1177,10 +1177,10 @@
         <v>0.029649999999999999</v>
       </c>
       <c r="M9" s="0">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="N9" s="0">
-        <v>0.025260000000000001</v>
+        <v>0.02366</v>
       </c>
       <c r="O9" s="0">
         <v>-5</v>
@@ -1263,22 +1263,22 @@
     </row>
     <row r="10">
       <c r="A10" s="0">
+        <v>-4</v>
+      </c>
+      <c r="B10" s="0">
+        <v>0.11305999999999999</v>
+      </c>
+      <c r="C10" s="0">
         <v>-3</v>
       </c>
-      <c r="B10" s="0">
-        <v>0.096560000000000007</v>
-      </c>
-      <c r="C10" s="0">
-        <v>-2</v>
-      </c>
       <c r="D10" s="0">
-        <v>0.060760000000000002</v>
+        <v>0.060729999999999999</v>
       </c>
       <c r="E10" s="0">
         <v>-3</v>
       </c>
       <c r="F10" s="0">
-        <v>0.047969999999999999</v>
+        <v>0.046170000000000003</v>
       </c>
       <c r="G10" s="0">
         <v>-2</v>
@@ -1299,10 +1299,10 @@
         <v>0.028289999999999999</v>
       </c>
       <c r="M10" s="0">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="N10" s="0">
-        <v>0.02366</v>
+        <v>0.022630000000000001</v>
       </c>
       <c r="O10" s="0">
         <v>-4</v>
@@ -1385,22 +1385,22 @@
     </row>
     <row r="11">
       <c r="A11" s="0">
+        <v>-3</v>
+      </c>
+      <c r="B11" s="0">
+        <v>0.099970000000000003</v>
+      </c>
+      <c r="C11" s="0">
         <v>-2</v>
       </c>
-      <c r="B11" s="0">
-        <v>0.090020000000000003</v>
-      </c>
-      <c r="C11" s="0">
-        <v>-1</v>
-      </c>
       <c r="D11" s="0">
-        <v>0.059920000000000001</v>
+        <v>0.060769999999999998</v>
       </c>
       <c r="E11" s="0">
         <v>-1</v>
       </c>
       <c r="F11" s="0">
-        <v>0.047300000000000002</v>
+        <v>0.04727</v>
       </c>
       <c r="G11" s="0">
         <v>-1</v>
@@ -1418,13 +1418,13 @@
         <v>-3</v>
       </c>
       <c r="L11" s="0">
-        <v>0.0275</v>
+        <v>0.02751</v>
       </c>
       <c r="M11" s="0">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="N11" s="0">
-        <v>0.022630000000000001</v>
+        <v>0.02188</v>
       </c>
       <c r="O11" s="0">
         <v>-3</v>
@@ -1507,22 +1507,22 @@
     </row>
     <row r="12">
       <c r="A12" s="0">
+        <v>-2</v>
+      </c>
+      <c r="B12" s="0">
+        <v>0.091509999999999994</v>
+      </c>
+      <c r="C12" s="0">
         <v>-1</v>
       </c>
-      <c r="B12" s="0">
-        <v>0.087129999999999999</v>
-      </c>
-      <c r="C12" s="0">
-        <v>0</v>
-      </c>
       <c r="D12" s="0">
-        <v>0.0591</v>
+        <v>0.059920000000000001</v>
       </c>
       <c r="E12" s="0">
         <v>0</v>
       </c>
       <c r="F12" s="0">
-        <v>0.047149999999999998</v>
+        <v>0.047120000000000002</v>
       </c>
       <c r="G12" s="0">
         <v>0</v>
@@ -1543,10 +1543,10 @@
         <v>0.026259999999999999</v>
       </c>
       <c r="M12" s="0">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="N12" s="0">
-        <v>0.02188</v>
+        <v>0.021000000000000001</v>
       </c>
       <c r="O12" s="0">
         <v>-2</v>
@@ -1629,16 +1629,16 @@
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B13" s="0">
-        <v>0.085730000000000001</v>
+        <v>0.087029999999999996</v>
       </c>
       <c r="C13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="0">
-        <v>0.060879999999999997</v>
+        <v>0.059060000000000001</v>
       </c>
       <c r="E13" s="0">
         <v>1</v>
@@ -1647,10 +1647,10 @@
         <v>0.047100000000000003</v>
       </c>
       <c r="G13" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H13" s="0">
-        <v>0.03773</v>
+        <v>0.036249999999999998</v>
       </c>
       <c r="I13" s="0">
         <v>-1</v>
@@ -1665,10 +1665,10 @@
         <v>0.02504</v>
       </c>
       <c r="M13" s="0">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N13" s="0">
-        <v>0.021000000000000001</v>
+        <v>0.02085</v>
       </c>
       <c r="O13" s="0">
         <v>-1</v>
@@ -1751,28 +1751,28 @@
     </row>
     <row r="14">
       <c r="A14" s="0">
+        <v>0</v>
+      </c>
+      <c r="B14" s="0">
+        <v>0.085070000000000007</v>
+      </c>
+      <c r="C14" s="0">
         <v>1</v>
       </c>
-      <c r="B14" s="0">
-        <v>0.086349999999999996</v>
-      </c>
-      <c r="C14" s="0">
-        <v>2</v>
-      </c>
       <c r="D14" s="0">
-        <v>0.061219999999999997</v>
+        <v>0.060859999999999998</v>
       </c>
       <c r="E14" s="0">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F14" s="0">
-        <v>0.049259999999999998</v>
+        <v>0.052069999999999998</v>
       </c>
       <c r="G14" s="0">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H14" s="0">
-        <v>0.036260000000000001</v>
+        <v>0.044880000000000003</v>
       </c>
       <c r="I14" s="0">
         <v>0</v>
@@ -1787,10 +1787,10 @@
         <v>0.0252</v>
       </c>
       <c r="M14" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" s="0">
-        <v>0.02085</v>
+        <v>0.02002</v>
       </c>
       <c r="O14" s="0">
         <v>0</v>
@@ -1873,28 +1873,28 @@
     </row>
     <row r="15">
       <c r="A15" s="0">
+        <v>1</v>
+      </c>
+      <c r="B15" s="0">
+        <v>0.086300000000000002</v>
+      </c>
+      <c r="C15" s="0">
         <v>2</v>
       </c>
-      <c r="B15" s="0">
-        <v>0.088459999999999997</v>
-      </c>
-      <c r="C15" s="0">
-        <v>3</v>
-      </c>
       <c r="D15" s="0">
-        <v>0.064449999999999993</v>
+        <v>0.061210000000000001</v>
       </c>
       <c r="E15" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F15" s="0">
-        <v>0.052049999999999999</v>
+        <v>0.05901</v>
       </c>
       <c r="G15" s="0">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H15" s="0">
-        <v>0.042729999999999997</v>
+        <v>0.047489999999999998</v>
       </c>
       <c r="I15" s="0">
         <v>1</v>
@@ -1909,10 +1909,10 @@
         <v>0.025479999999999999</v>
       </c>
       <c r="M15" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N15" s="0">
-        <v>0.02002</v>
+        <v>0.020369999999999999</v>
       </c>
       <c r="O15" s="0">
         <v>1</v>
@@ -1995,28 +1995,28 @@
     </row>
     <row r="16">
       <c r="A16" s="0">
+        <v>2</v>
+      </c>
+      <c r="B16" s="0">
+        <v>0.088469999999999993</v>
+      </c>
+      <c r="C16" s="0">
         <v>3</v>
       </c>
-      <c r="B16" s="0">
-        <v>0.0906</v>
-      </c>
-      <c r="C16" s="0">
-        <v>4</v>
-      </c>
       <c r="D16" s="0">
-        <v>0.06794</v>
+        <v>0.06447</v>
       </c>
       <c r="E16" s="0">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F16" s="0">
-        <v>0.059029999999999999</v>
+        <v>0.11824</v>
       </c>
       <c r="G16" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H16" s="0">
-        <v>0.044889999999999999</v>
+        <v>0.051400000000000001</v>
       </c>
       <c r="I16" s="0">
         <v>2</v>
@@ -2028,13 +2028,13 @@
         <v>2</v>
       </c>
       <c r="L16" s="0">
-        <v>0.024559999999999999</v>
+        <v>0.024570000000000002</v>
       </c>
       <c r="M16" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N16" s="0">
-        <v>0.020369999999999999</v>
+        <v>0.021170000000000001</v>
       </c>
       <c r="O16" s="0">
         <v>2</v>
@@ -2117,28 +2117,28 @@
     </row>
     <row r="17">
       <c r="A17" s="0">
+        <v>3</v>
+      </c>
+      <c r="B17" s="0">
+        <v>0.090630000000000002</v>
+      </c>
+      <c r="C17" s="0">
         <v>4</v>
       </c>
-      <c r="B17" s="0">
-        <v>0.099479999999999999</v>
-      </c>
-      <c r="C17" s="0">
-        <v>7</v>
-      </c>
       <c r="D17" s="0">
-        <v>0.093369999999999995</v>
+        <v>0.067919999999999994</v>
       </c>
       <c r="E17" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" s="0">
-        <v>0.11828</v>
+        <v>0.13172</v>
       </c>
       <c r="G17" s="0">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H17" s="0">
-        <v>0.047489999999999998</v>
+        <v>0.058819999999999997</v>
       </c>
       <c r="I17" s="0">
         <v>3</v>
@@ -2153,10 +2153,10 @@
         <v>0.026290000000000001</v>
       </c>
       <c r="M17" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N17" s="0">
-        <v>0.021170000000000001</v>
+        <v>0.022530000000000001</v>
       </c>
       <c r="O17" s="0">
         <v>3</v>
@@ -2239,28 +2239,28 @@
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B18" s="0">
-        <v>0.10639</v>
+        <v>0.099479999999999999</v>
       </c>
       <c r="C18" s="0">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D18" s="0">
-        <v>0.10439</v>
+        <v>0.084159999999999999</v>
       </c>
       <c r="E18" s="0">
         <v>13</v>
       </c>
       <c r="F18" s="0">
-        <v>0.13653000000000001</v>
+        <v>0.13650999999999999</v>
       </c>
       <c r="G18" s="0">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H18" s="0">
-        <v>0.051409999999999997</v>
+        <v>0.079519999999999993</v>
       </c>
       <c r="I18" s="0">
         <v>4</v>
@@ -2275,10 +2275,10 @@
         <v>0.02792</v>
       </c>
       <c r="M18" s="0">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N18" s="0">
-        <v>0.022530000000000001</v>
+        <v>0.024459999999999999</v>
       </c>
       <c r="O18" s="0">
         <v>4</v>
@@ -2361,28 +2361,28 @@
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B19" s="0">
-        <v>0.11385000000000001</v>
+        <v>0.10639999999999999</v>
       </c>
       <c r="C19" s="0">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D19" s="0">
-        <v>0.11269</v>
+        <v>0.093509999999999996</v>
       </c>
       <c r="E19" s="0">
         <v>14</v>
       </c>
       <c r="F19" s="0">
-        <v>0.14960999999999999</v>
+        <v>0.14943000000000001</v>
       </c>
       <c r="G19" s="0">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H19" s="0">
-        <v>0.05883</v>
+        <v>0.12567999999999999</v>
       </c>
       <c r="I19" s="0">
         <v>5</v>
@@ -2397,10 +2397,10 @@
         <v>0.03006</v>
       </c>
       <c r="M19" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N19" s="0">
-        <v>0.024459999999999999</v>
+        <v>0.02675</v>
       </c>
       <c r="O19" s="0">
         <v>5</v>
@@ -2483,28 +2483,28 @@
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B20" s="0">
-        <v>0.12166</v>
+        <v>0.11384</v>
       </c>
       <c r="C20" s="0">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D20" s="0">
-        <v>0.12329</v>
+        <v>0.10439</v>
       </c>
       <c r="E20" s="0">
         <v>15</v>
       </c>
       <c r="F20" s="0">
-        <v>0.16038</v>
+        <v>0.16042999999999999</v>
       </c>
       <c r="G20" s="0">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H20" s="0">
-        <v>0.079530000000000003</v>
+        <v>0.15051999999999999</v>
       </c>
       <c r="I20" s="0">
         <v>6</v>
@@ -2516,13 +2516,13 @@
         <v>6</v>
       </c>
       <c r="L20" s="0">
-        <v>0.032059999999999998</v>
+        <v>0.032050000000000002</v>
       </c>
       <c r="M20" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N20" s="0">
-        <v>0.02675</v>
+        <v>0.02928</v>
       </c>
       <c r="O20" s="0">
         <v>6</v>
@@ -2605,28 +2605,22 @@
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B21" s="0">
-        <v>0.12999</v>
+        <v>0.12168</v>
       </c>
       <c r="C21" s="0">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D21" s="0">
-        <v>0.13489000000000001</v>
-      </c>
-      <c r="E21" s="0">
-        <v>16</v>
-      </c>
-      <c r="F21" s="0">
-        <v>0.16997000000000001</v>
+        <v>0.11266</v>
       </c>
       <c r="G21" s="0">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H21" s="0">
-        <v>0.13921</v>
+        <v>0.15776000000000001</v>
       </c>
       <c r="I21" s="0">
         <v>7</v>
@@ -2641,10 +2635,10 @@
         <v>0.035549999999999998</v>
       </c>
       <c r="M21" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N21" s="0">
-        <v>0.02928</v>
+        <v>0.031949999999999999</v>
       </c>
       <c r="O21" s="0">
         <v>7</v>
@@ -2727,28 +2721,16 @@
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B22" s="0">
-        <v>0.13826</v>
+        <v>0.12999</v>
       </c>
       <c r="C22" s="0">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D22" s="0">
-        <v>0.15326000000000001</v>
-      </c>
-      <c r="E22" s="0">
-        <v>17</v>
-      </c>
-      <c r="F22" s="0">
-        <v>0.17841000000000001</v>
-      </c>
-      <c r="G22" s="0">
-        <v>15</v>
-      </c>
-      <c r="H22" s="0">
-        <v>0.15901000000000001</v>
+        <v>0.12327</v>
       </c>
       <c r="I22" s="0">
         <v>8</v>
@@ -2763,10 +2745,10 @@
         <v>0.038710000000000001</v>
       </c>
       <c r="M22" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N22" s="0">
-        <v>0.031960000000000002</v>
+        <v>0.035099999999999999</v>
       </c>
       <c r="O22" s="0">
         <v>8</v>
@@ -2826,7 +2808,7 @@
         <v>8</v>
       </c>
       <c r="AH22" s="0">
-        <v>0.021899999999999999</v>
+        <v>0.02189</v>
       </c>
       <c r="AI22" s="0">
         <v>8</v>
@@ -2849,22 +2831,16 @@
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B23" s="0">
-        <v>0.14682000000000001</v>
+        <v>0.13826</v>
       </c>
       <c r="C23" s="0">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D23" s="0">
-        <v>0.16239999999999999</v>
-      </c>
-      <c r="G23" s="0">
-        <v>16</v>
-      </c>
-      <c r="H23" s="0">
-        <v>0.16636000000000001</v>
+        <v>0.13486999999999999</v>
       </c>
       <c r="I23" s="0">
         <v>9</v>
@@ -2879,10 +2855,10 @@
         <v>0.042110000000000002</v>
       </c>
       <c r="M23" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N23" s="0">
-        <v>0.035099999999999999</v>
+        <v>0.038550000000000001</v>
       </c>
       <c r="O23" s="0">
         <v>9</v>
@@ -2965,16 +2941,16 @@
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B24" s="0">
-        <v>0.15539</v>
+        <v>0.14681</v>
       </c>
       <c r="C24" s="0">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D24" s="0">
-        <v>0.16936999999999999</v>
+        <v>0.15340000000000001</v>
       </c>
       <c r="I24" s="0">
         <v>10</v>
@@ -2989,10 +2965,10 @@
         <v>0.044609999999999997</v>
       </c>
       <c r="M24" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N24" s="0">
-        <v>0.038550000000000001</v>
+        <v>0.041320000000000003</v>
       </c>
       <c r="O24" s="0">
         <v>10</v>
@@ -3075,16 +3051,16 @@
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B25" s="0">
-        <v>0.16413</v>
+        <v>0.15537999999999999</v>
       </c>
       <c r="C25" s="0">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D25" s="0">
-        <v>0.17902000000000001</v>
+        <v>0.16238</v>
       </c>
       <c r="I25" s="0">
         <v>11</v>
@@ -3099,10 +3075,10 @@
         <v>0.052780000000000001</v>
       </c>
       <c r="M25" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N25" s="0">
-        <v>0.041320000000000003</v>
+        <v>0.048210000000000003</v>
       </c>
       <c r="O25" s="0">
         <v>11</v>
@@ -3180,21 +3156,21 @@
         <v>11</v>
       </c>
       <c r="AN25" s="0">
-        <v>0.18476000000000001</v>
+        <v>0.18476999999999999</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
+        <v>12</v>
+      </c>
+      <c r="B26" s="0">
+        <v>0.16405</v>
+      </c>
+      <c r="C26" s="0">
         <v>15</v>
       </c>
-      <c r="B26" s="0">
-        <v>0.19324</v>
-      </c>
-      <c r="C26" s="0">
-        <v>17</v>
-      </c>
       <c r="D26" s="0">
-        <v>0.18764</v>
+        <v>0.1694</v>
       </c>
       <c r="I26" s="0">
         <v>14</v>
@@ -3206,13 +3182,13 @@
         <v>12</v>
       </c>
       <c r="L26" s="0">
-        <v>0.067299999999999999</v>
+        <v>0.067320000000000005</v>
       </c>
       <c r="M26" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N26" s="0">
-        <v>0.048210000000000003</v>
+        <v>0.05638</v>
       </c>
       <c r="O26" s="0">
         <v>12</v>
@@ -3236,7 +3212,7 @@
         <v>12</v>
       </c>
       <c r="V26" s="0">
-        <v>0.037699999999999998</v>
+        <v>0.03771</v>
       </c>
       <c r="W26" s="0">
         <v>12</v>
@@ -3295,10 +3271,10 @@
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B27" s="0">
-        <v>0.20243</v>
+        <v>0.17269999999999999</v>
       </c>
       <c r="I27" s="0">
         <v>15</v>
@@ -3310,13 +3286,13 @@
         <v>13</v>
       </c>
       <c r="L27" s="0">
-        <v>0.070080000000000003</v>
+        <v>0.07009</v>
       </c>
       <c r="M27" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N27" s="0">
-        <v>0.05638</v>
+        <v>0.06123</v>
       </c>
       <c r="O27" s="0">
         <v>13</v>
@@ -3376,7 +3352,7 @@
         <v>13</v>
       </c>
       <c r="AH27" s="0">
-        <v>0.054140000000000001</v>
+        <v>0.054129999999999998</v>
       </c>
       <c r="AI27" s="0">
         <v>13</v>
@@ -3399,28 +3375,16 @@
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B28" s="0">
-        <v>0.21129000000000001</v>
-      </c>
-      <c r="I28" s="0">
-        <v>16</v>
-      </c>
-      <c r="J28" s="0">
-        <v>0.16402</v>
-      </c>
-      <c r="K28" s="0">
-        <v>16</v>
-      </c>
-      <c r="L28" s="0">
-        <v>0.15267</v>
+        <v>0.19303999999999999</v>
       </c>
       <c r="M28" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N28" s="0">
-        <v>0.061240000000000003</v>
+        <v>0.10789</v>
       </c>
       <c r="O28" s="0">
         <v>14</v>
@@ -3444,7 +3408,7 @@
         <v>14</v>
       </c>
       <c r="V28" s="0">
-        <v>0.052510000000000001</v>
+        <v>0.052519999999999997</v>
       </c>
       <c r="W28" s="0">
         <v>14</v>
@@ -3480,13 +3444,13 @@
         <v>14</v>
       </c>
       <c r="AH28" s="0">
-        <v>0.068589999999999998</v>
+        <v>0.068580000000000002</v>
       </c>
       <c r="AI28" s="0">
         <v>14</v>
       </c>
       <c r="AJ28" s="0">
-        <v>0.074990000000000001</v>
+        <v>0.074980000000000005</v>
       </c>
       <c r="AK28" s="0">
         <v>14</v>
@@ -3502,36 +3466,12 @@
       </c>
     </row>
     <row r="29">
-      <c r="I29" s="0">
-        <v>17</v>
-      </c>
-      <c r="J29" s="0">
-        <v>0.17333000000000001</v>
-      </c>
-      <c r="K29" s="0">
-        <v>17</v>
-      </c>
-      <c r="L29" s="0">
-        <v>0.16142000000000001</v>
-      </c>
-      <c r="M29" s="0">
-        <v>15</v>
-      </c>
-      <c r="N29" s="0">
-        <v>0.1079</v>
-      </c>
       <c r="O29" s="0">
         <v>15</v>
       </c>
       <c r="P29" s="0">
         <v>0.067979999999999999</v>
       </c>
-      <c r="Q29" s="0">
-        <v>16</v>
-      </c>
-      <c r="R29" s="0">
-        <v>0.077990000000000004</v>
-      </c>
       <c r="S29" s="0">
         <v>15</v>
       </c>
@@ -3554,7 +3494,7 @@
         <v>15</v>
       </c>
       <c r="Z29" s="0">
-        <v>0.073450000000000001</v>
+        <v>0.073440000000000005</v>
       </c>
       <c r="AA29" s="0">
         <v>15</v>
@@ -3584,7 +3524,7 @@
         <v>15</v>
       </c>
       <c r="AJ29" s="0">
-        <v>0.094950000000000007</v>
+        <v>0.094939999999999997</v>
       </c>
       <c r="AK29" s="0">
         <v>15</v>
@@ -3596,161 +3536,7 @@
         <v>15</v>
       </c>
       <c r="AN29" s="0">
-        <v>0.22967000000000001</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="M30" s="0">
-        <v>17</v>
-      </c>
-      <c r="N30" s="0">
-        <v>0.14985000000000001</v>
-      </c>
-      <c r="O30" s="0">
-        <v>16</v>
-      </c>
-      <c r="P30" s="0">
-        <v>0.10073</v>
-      </c>
-      <c r="Q30" s="0">
-        <v>17</v>
-      </c>
-      <c r="R30" s="0">
-        <v>0.1026</v>
-      </c>
-      <c r="S30" s="0">
-        <v>16</v>
-      </c>
-      <c r="T30" s="0">
-        <v>0.078609999999999999</v>
-      </c>
-      <c r="U30" s="0">
-        <v>16</v>
-      </c>
-      <c r="V30" s="0">
-        <v>0.080729999999999996</v>
-      </c>
-      <c r="W30" s="0">
-        <v>17</v>
-      </c>
-      <c r="X30" s="0">
-        <v>0.10437</v>
-      </c>
-      <c r="Y30" s="0">
-        <v>16</v>
-      </c>
-      <c r="Z30" s="0">
-        <v>0.091240000000000002</v>
-      </c>
-      <c r="AA30" s="0">
-        <v>16</v>
-      </c>
-      <c r="AB30" s="0">
-        <v>0.09443</v>
-      </c>
-      <c r="AC30" s="0">
-        <v>16</v>
-      </c>
-      <c r="AD30" s="0">
-        <v>0.095750000000000002</v>
-      </c>
-      <c r="AE30" s="0">
-        <v>16</v>
-      </c>
-      <c r="AF30" s="0">
-        <v>0.099159999999999998</v>
-      </c>
-      <c r="AG30" s="0">
-        <v>16</v>
-      </c>
-      <c r="AH30" s="0">
-        <v>0.10502</v>
-      </c>
-      <c r="AI30" s="0">
-        <v>16</v>
-      </c>
-      <c r="AJ30" s="0">
-        <v>0.11687</v>
-      </c>
-      <c r="AK30" s="0">
-        <v>16</v>
-      </c>
-      <c r="AL30" s="0">
-        <v>0.17613000000000001</v>
-      </c>
-      <c r="AM30" s="0">
-        <v>16</v>
-      </c>
-      <c r="AN30" s="0">
-        <v>0.24224999999999999</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="O31" s="0">
-        <v>17</v>
-      </c>
-      <c r="P31" s="0">
-        <v>0.12021999999999999</v>
-      </c>
-      <c r="S31" s="0">
-        <v>17</v>
-      </c>
-      <c r="T31" s="0">
-        <v>0.097259999999999999</v>
-      </c>
-      <c r="U31" s="0">
-        <v>17</v>
-      </c>
-      <c r="V31" s="0">
-        <v>0.099879999999999997</v>
-      </c>
-      <c r="Y31" s="0">
-        <v>17</v>
-      </c>
-      <c r="Z31" s="0">
-        <v>0.10842</v>
-      </c>
-      <c r="AA31" s="0">
-        <v>17</v>
-      </c>
-      <c r="AB31" s="0">
-        <v>0.11187999999999999</v>
-      </c>
-      <c r="AC31" s="0">
-        <v>17</v>
-      </c>
-      <c r="AD31" s="0">
-        <v>0.11377</v>
-      </c>
-      <c r="AE31" s="0">
-        <v>17</v>
-      </c>
-      <c r="AF31" s="0">
-        <v>0.11906</v>
-      </c>
-      <c r="AG31" s="0">
-        <v>17</v>
-      </c>
-      <c r="AH31" s="0">
-        <v>0.12698000000000001</v>
-      </c>
-      <c r="AI31" s="0">
-        <v>17</v>
-      </c>
-      <c r="AJ31" s="0">
-        <v>0.14043</v>
-      </c>
-      <c r="AK31" s="0">
-        <v>17</v>
-      </c>
-      <c r="AL31" s="0">
-        <v>0.18904000000000001</v>
-      </c>
-      <c r="AM31" s="0">
-        <v>17</v>
-      </c>
-      <c r="AN31" s="0">
-        <v>0.25527</v>
+        <v>0.22968</v>
       </c>
     </row>
   </sheetData>
